--- a/examples/ex040.MF_choke.xlsx
+++ b/examples/ex040.MF_choke.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5818141-9DB5-4443-BF1F-4067A520F3C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD6F297-7DF2-4B1B-A347-550839430DED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3555" yWindow="1785" windowWidth="33720" windowHeight="19815" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="660" windowWidth="27990" windowHeight="19740" tabRatio="591" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Choke" sheetId="118" r:id="rId1"/>
@@ -829,12 +829,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -843,6 +837,12 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -5234,7 +5234,7 @@
                 <a:cs typeface="Arial Cyr"/>
               </a:rPr>
               <a:pPr/>
-              <a:t>Q = 50 atm</a:t>
+              <a:t>Q = 10 atm</a:t>
             </a:fld>
             <a:endParaRPr lang="ru-RU" sz="1100"/>
           </a:p>
@@ -5685,6 +5685,94 @@
             </a:rPr>
             <a:t>Рассчитайте как изменится дебит жидкости при изменении давления на входе в штуцер. Можно ли объянить изменение давления изменением газового фактора или обводненности?</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" marR="0" lvl="0" indent="-171450" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Расчитайте работу штуцера для потока газа. Установите </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>gas_only=True </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>для </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>PVT </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>строки для проведения расчета. Как изменится перепад давления для газа по сравнению с ГЖС?</a:t>
+          </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100">
             <a:effectLst/>
           </a:endParaRPr>
@@ -5973,6 +6061,7 @@
       <definedName name="getUFVersion"/>
       <definedName name="MF_calibr_choke_fr"/>
       <definedName name="MF_p_choke_atma"/>
+      <definedName name="MF_q_choke_sm3day"/>
       <definedName name="MF_qliq_choke_sm3day"/>
       <definedName name="PVT_encode_string"/>
     </definedNames>
@@ -7144,7 +7233,7 @@
   <dimension ref="A1:AR104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AW29" sqref="AW29"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7194,7 +7283,7 @@
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="AL4" t="str">
         <f>"Q = "&amp;Qliq_&amp;" atm"</f>
-        <v>Q = 50 atm</v>
+        <v>Q = 10 atm</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
@@ -7422,7 +7511,7 @@
         <v>45</v>
       </c>
       <c r="C23" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>18</v>
@@ -7484,7 +7573,7 @@
         <v>19</v>
       </c>
       <c r="F25" s="29" t="str">
-        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_)</f>
+        <f>[1]!PVT_encode_string(gamma_gas_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,,,,F23)</f>
         <v>gamma_gas:0.800;gamma_oil:0.870;gamma_wat:1.000;rsb_m3m3:80.000;rp_m3m3:80.000;pb_atma:120.000;tres_C:100.000;bob_m3m3:1.200;muob_cP:1.000;PVTcorr:0;ksep_fr:0.000;p_ksep_atma:-1.000;t_ksep_C:-1.000;gas_only:False;</v>
       </c>
       <c r="G25" s="29"/>
@@ -7535,20 +7624,20 @@
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="I29" s="36" t="s">
+      <c r="I29" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="36"/>
-      <c r="T29" s="36"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39"/>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="39"/>
+      <c r="T29" s="39"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B30" s="20" t="s">
@@ -7644,14 +7733,14 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="B31" s="31">
-        <f t="array" ref="B31:F32">[1]!MF_p_choke_atma(Qliq_,fw_,d_choke,Pbuf_,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>24.9462890625</v>
+        <f t="array" ref="B31:F32">[1]!MF_p_choke_atma(Qliq_,fw_,d_choke,Pbuf_,1,d_pipe,T_choke,,PVTstr_,F22)</f>
+        <v>25.95953369140625</v>
       </c>
       <c r="C31" s="31">
         <v>26</v>
       </c>
       <c r="D31" s="31">
-        <v>24.9462890625</v>
+        <v>25.95953369140625</v>
       </c>
       <c r="E31" s="31">
         <v>30</v>
@@ -7659,118 +7748,118 @@
       <c r="F31" s="31">
         <v>1</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="33">
         <v>1</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="36">
         <f>[1]!MF_p_choke_atma(I$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>1</v>
       </c>
-      <c r="J31" s="38">
+      <c r="J31" s="36">
         <f>[1]!MF_p_choke_atma(J$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>1.009857177734375</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31" s="36">
         <f>[1]!MF_p_choke_atma(K$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>1.0400390625</v>
       </c>
-      <c r="L31" s="38">
+      <c r="L31" s="36">
         <f>[1]!MF_p_choke_atma(L$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>1.169921875</v>
       </c>
-      <c r="M31" s="38">
+      <c r="M31" s="36">
         <f>[1]!MF_p_choke_atma(M$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>1.857421875</v>
       </c>
-      <c r="N31" s="38">
+      <c r="N31" s="36">
         <f>[1]!MF_p_choke_atma(N$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>2.3203125</v>
       </c>
-      <c r="O31" s="38">
+      <c r="O31" s="36">
         <f>[1]!MF_p_choke_atma(O$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>4.6171875</v>
       </c>
-      <c r="P31" s="38">
+      <c r="P31" s="36">
         <f>[1]!MF_p_choke_atma(P$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>6.890625</v>
       </c>
-      <c r="Q31" s="38">
+      <c r="Q31" s="36">
         <f>[1]!MF_p_choke_atma(Q$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>9.125</v>
       </c>
-      <c r="R31" s="38">
+      <c r="R31" s="36">
         <f>[1]!MF_p_choke_atma(R$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>11.328125</v>
       </c>
-      <c r="S31" s="38">
+      <c r="S31" s="36">
         <f>[1]!MF_p_choke_atma(S$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>13.5</v>
       </c>
-      <c r="T31" s="38">
+      <c r="T31" s="36">
         <f>[1]!MF_p_choke_atma(T$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>15.625</v>
       </c>
-      <c r="U31" s="38">
+      <c r="U31" s="36">
         <f>[1]!MF_p_choke_atma(U$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>17.71875</v>
       </c>
-      <c r="V31" s="38">
+      <c r="V31" s="36">
         <f>[1]!MF_p_choke_atma(V$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>19.78125</v>
       </c>
-      <c r="W31" s="38">
+      <c r="W31" s="36">
         <f>[1]!MF_p_choke_atma(W$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>21.8125</v>
       </c>
-      <c r="X31" s="38">
+      <c r="X31" s="36">
         <f>[1]!MF_p_choke_atma(X$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>23.78125</v>
       </c>
-      <c r="Y31" s="38">
+      <c r="Y31" s="36">
         <f>[1]!MF_p_choke_atma(Y$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>25.75</v>
       </c>
-      <c r="Z31" s="38">
+      <c r="Z31" s="36">
         <f>[1]!MF_p_choke_atma(Z$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>27.625</v>
       </c>
-      <c r="AA31" s="38">
+      <c r="AA31" s="36">
         <f>[1]!MF_p_choke_atma(AA$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>29.5</v>
       </c>
-      <c r="AB31" s="38">
+      <c r="AB31" s="36">
         <f>[1]!MF_p_choke_atma(AB$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>31.375</v>
       </c>
-      <c r="AC31" s="38">
+      <c r="AC31" s="36">
         <f>[1]!MF_p_choke_atma(AC$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>33.1875</v>
       </c>
-      <c r="AD31" s="38">
+      <c r="AD31" s="36">
         <f>[1]!MF_p_choke_atma(AD$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>34.9375</v>
       </c>
-      <c r="AE31" s="38">
+      <c r="AE31" s="36">
         <f>[1]!MF_p_choke_atma(AE$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>36.6875</v>
       </c>
-      <c r="AF31" s="38">
+      <c r="AF31" s="36">
         <f>[1]!MF_p_choke_atma(AF$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>38.375</v>
       </c>
-      <c r="AG31" s="38">
+      <c r="AG31" s="36">
         <f>[1]!MF_p_choke_atma(AG$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>40.0625</v>
       </c>
-      <c r="AH31" s="38">
+      <c r="AH31" s="36">
         <f>[1]!MF_p_choke_atma(AH$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>41.75</v>
       </c>
-      <c r="AI31" s="38">
+      <c r="AI31" s="36">
         <f>[1]!MF_p_choke_atma(AI$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>43.375</v>
       </c>
-      <c r="AJ31" s="38">
+      <c r="AJ31" s="36">
         <f>[1]!MF_p_choke_atma(AJ$30,fw_,d_choke,$H31,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>44.9375</v>
       </c>
@@ -7791,235 +7880,235 @@
       <c r="F32" s="32" t="str">
         <v>c_calibr_fr</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="33">
         <v>5</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="36">
         <f>[1]!MF_p_choke_atma(I$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>5</v>
       </c>
-      <c r="J32" s="38">
+      <c r="J32" s="36">
         <f>[1]!MF_p_choke_atma(J$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>5.0019979476928711</v>
       </c>
-      <c r="K32" s="38">
+      <c r="K32" s="36">
         <f>[1]!MF_p_choke_atma(K$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>5.0079917907714844</v>
       </c>
-      <c r="L32" s="38">
+      <c r="L32" s="36">
         <f>[1]!MF_p_choke_atma(L$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>5.03204345703125</v>
       </c>
-      <c r="M32" s="38">
+      <c r="M32" s="36">
         <f>[1]!MF_p_choke_atma(M$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>5.12939453125</v>
       </c>
-      <c r="N32" s="38">
+      <c r="N32" s="36">
         <f>[1]!MF_p_choke_atma(N$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>5.2032470703125</v>
       </c>
-      <c r="O32" s="38">
+      <c r="O32" s="36">
         <f>[1]!MF_p_choke_atma(O$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>5.85693359375</v>
       </c>
-      <c r="P32" s="38">
+      <c r="P32" s="36">
         <f>[1]!MF_p_choke_atma(P$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>7.099609375</v>
       </c>
-      <c r="Q32" s="38">
+      <c r="Q32" s="36">
         <f>[1]!MF_p_choke_atma(Q$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>9.12109375</v>
       </c>
-      <c r="R32" s="38">
+      <c r="R32" s="36">
         <f>[1]!MF_p_choke_atma(R$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>11.328125</v>
       </c>
-      <c r="S32" s="38">
+      <c r="S32" s="36">
         <f>[1]!MF_p_choke_atma(S$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>13.49609375</v>
       </c>
-      <c r="T32" s="38">
+      <c r="T32" s="36">
         <f>[1]!MF_p_choke_atma(T$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>15.625</v>
       </c>
-      <c r="U32" s="38">
+      <c r="U32" s="36">
         <f>[1]!MF_p_choke_atma(U$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>17.734375</v>
       </c>
-      <c r="V32" s="38">
+      <c r="V32" s="36">
         <f>[1]!MF_p_choke_atma(V$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>19.765625</v>
       </c>
-      <c r="W32" s="38">
+      <c r="W32" s="36">
         <f>[1]!MF_p_choke_atma(W$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>21.796875</v>
       </c>
-      <c r="X32" s="38">
+      <c r="X32" s="36">
         <f>[1]!MF_p_choke_atma(X$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>23.7890625</v>
       </c>
-      <c r="Y32" s="38">
+      <c r="Y32" s="36">
         <f>[1]!MF_p_choke_atma(Y$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>25.7421875</v>
       </c>
-      <c r="Z32" s="38">
+      <c r="Z32" s="36">
         <f>[1]!MF_p_choke_atma(Z$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>27.65625</v>
       </c>
-      <c r="AA32" s="38">
+      <c r="AA32" s="36">
         <f>[1]!MF_p_choke_atma(AA$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>29.53125</v>
       </c>
-      <c r="AB32" s="38">
+      <c r="AB32" s="36">
         <f>[1]!MF_p_choke_atma(AB$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>31.3671875</v>
       </c>
-      <c r="AC32" s="38">
+      <c r="AC32" s="36">
         <f>[1]!MF_p_choke_atma(AC$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>33.203125</v>
       </c>
-      <c r="AD32" s="38">
+      <c r="AD32" s="36">
         <f>[1]!MF_p_choke_atma(AD$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>34.9609375</v>
       </c>
-      <c r="AE32" s="38">
+      <c r="AE32" s="36">
         <f>[1]!MF_p_choke_atma(AE$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>36.71875</v>
       </c>
-      <c r="AF32" s="38">
+      <c r="AF32" s="36">
         <f>[1]!MF_p_choke_atma(AF$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>38.4375</v>
       </c>
-      <c r="AG32" s="38">
+      <c r="AG32" s="36">
         <f>[1]!MF_p_choke_atma(AG$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>40.078125</v>
       </c>
-      <c r="AH32" s="38">
+      <c r="AH32" s="36">
         <f>[1]!MF_p_choke_atma(AH$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>41.71875</v>
       </c>
-      <c r="AI32" s="38">
+      <c r="AI32" s="36">
         <f>[1]!MF_p_choke_atma(AI$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>43.359375</v>
       </c>
-      <c r="AJ32" s="38">
+      <c r="AJ32" s="36">
         <f>[1]!MF_p_choke_atma(AJ$30,fw_,d_choke,$H32,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>44.921875</v>
       </c>
     </row>
     <row r="33" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="H33" s="2">
+      <c r="H33" s="33">
         <v>10</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="36">
         <f>[1]!MF_p_choke_atma(I$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>10</v>
       </c>
-      <c r="J33" s="38">
+      <c r="J33" s="36">
         <f>[1]!MF_p_choke_atma(J$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>10.001015663146973</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="36">
         <f>[1]!MF_p_choke_atma(K$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>10.004062652587891</v>
       </c>
-      <c r="L33" s="38">
+      <c r="L33" s="36">
         <f>[1]!MF_p_choke_atma(L$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>10.016250610351563</v>
       </c>
-      <c r="M33" s="38">
+      <c r="M33" s="36">
         <f>[1]!MF_p_choke_atma(M$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>10.06500244140625</v>
       </c>
-      <c r="N33" s="38">
+      <c r="N33" s="36">
         <f>[1]!MF_p_choke_atma(N$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>10.1019287109375</v>
       </c>
-      <c r="O33" s="38">
+      <c r="O33" s="36">
         <f>[1]!MF_p_choke_atma(O$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>10.411376953125</v>
       </c>
-      <c r="P33" s="38">
+      <c r="P33" s="36">
         <f>[1]!MF_p_choke_atma(P$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>10.9423828125</v>
       </c>
-      <c r="Q33" s="38">
+      <c r="Q33" s="36">
         <f>[1]!MF_p_choke_atma(Q$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>11.708984375</v>
       </c>
-      <c r="R33" s="38">
+      <c r="R33" s="36">
         <f>[1]!MF_p_choke_atma(R$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>12.75390625</v>
       </c>
-      <c r="S33" s="38">
+      <c r="S33" s="36">
         <f>[1]!MF_p_choke_atma(S$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>14.08203125</v>
       </c>
-      <c r="T33" s="38">
+      <c r="T33" s="36">
         <f>[1]!MF_p_choke_atma(T$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>15.7421875</v>
       </c>
-      <c r="U33" s="38">
+      <c r="U33" s="36">
         <f>[1]!MF_p_choke_atma(U$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>17.734375</v>
       </c>
-      <c r="V33" s="38">
+      <c r="V33" s="36">
         <f>[1]!MF_p_choke_atma(V$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>19.765625</v>
       </c>
-      <c r="W33" s="38">
+      <c r="W33" s="36">
         <f>[1]!MF_p_choke_atma(W$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>21.796875</v>
       </c>
-      <c r="X33" s="38">
+      <c r="X33" s="36">
         <f>[1]!MF_p_choke_atma(X$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>23.7890625</v>
       </c>
-      <c r="Y33" s="38">
+      <c r="Y33" s="36">
         <f>[1]!MF_p_choke_atma(Y$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>25.7421875</v>
       </c>
-      <c r="Z33" s="38">
+      <c r="Z33" s="36">
         <f>[1]!MF_p_choke_atma(Z$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>27.65625</v>
       </c>
-      <c r="AA33" s="38">
+      <c r="AA33" s="36">
         <f>[1]!MF_p_choke_atma(AA$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>29.53125</v>
       </c>
-      <c r="AB33" s="38">
+      <c r="AB33" s="36">
         <f>[1]!MF_p_choke_atma(AB$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>31.3671875</v>
       </c>
-      <c r="AC33" s="38">
+      <c r="AC33" s="36">
         <f>[1]!MF_p_choke_atma(AC$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>33.203125</v>
       </c>
-      <c r="AD33" s="38">
+      <c r="AD33" s="36">
         <f>[1]!MF_p_choke_atma(AD$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>34.9609375</v>
       </c>
-      <c r="AE33" s="38">
+      <c r="AE33" s="36">
         <f>[1]!MF_p_choke_atma(AE$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>36.71875</v>
       </c>
-      <c r="AF33" s="38">
+      <c r="AF33" s="36">
         <f>[1]!MF_p_choke_atma(AF$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>38.4375</v>
       </c>
-      <c r="AG33" s="38">
+      <c r="AG33" s="36">
         <f>[1]!MF_p_choke_atma(AG$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>40.078125</v>
       </c>
-      <c r="AH33" s="38">
+      <c r="AH33" s="36">
         <f>[1]!MF_p_choke_atma(AH$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>41.71875</v>
       </c>
-      <c r="AI33" s="38">
+      <c r="AI33" s="36">
         <f>[1]!MF_p_choke_atma(AI$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>43.359375</v>
       </c>
-      <c r="AJ33" s="38">
+      <c r="AJ33" s="36">
         <f>[1]!MF_p_choke_atma(AJ$30,fw_,d_choke,$H33,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>44.921875</v>
       </c>
@@ -8028,118 +8117,118 @@
       <c r="B34" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="33">
         <v>15</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="36">
         <f>[1]!MF_p_choke_atma(I$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>15</v>
       </c>
-      <c r="J34" s="38">
+      <c r="J34" s="36">
         <f>[1]!MF_p_choke_atma(J$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>15.000686645507813</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="36">
         <f>[1]!MF_p_choke_atma(K$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>15.00274658203125</v>
       </c>
-      <c r="L34" s="38">
+      <c r="L34" s="36">
         <f>[1]!MF_p_choke_atma(L$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>15.010986328125</v>
       </c>
-      <c r="M34" s="38">
+      <c r="M34" s="36">
         <f>[1]!MF_p_choke_atma(M$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>15.0439453125</v>
       </c>
-      <c r="N34" s="38">
+      <c r="N34" s="36">
         <f>[1]!MF_p_choke_atma(N$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>15.06866455078125</v>
       </c>
-      <c r="O34" s="38">
+      <c r="O34" s="36">
         <f>[1]!MF_p_choke_atma(O$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>15.27557373046875</v>
       </c>
-      <c r="P34" s="38">
+      <c r="P34" s="36">
         <f>[1]!MF_p_choke_atma(P$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>15.62255859375</v>
       </c>
-      <c r="Q34" s="38">
+      <c r="Q34" s="36">
         <f>[1]!MF_p_choke_atma(Q$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>16.11328125</v>
       </c>
-      <c r="R34" s="38">
+      <c r="R34" s="36">
         <f>[1]!MF_p_choke_atma(R$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>16.7578125</v>
       </c>
-      <c r="S34" s="38">
+      <c r="S34" s="36">
         <f>[1]!MF_p_choke_atma(S$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>17.55615234375</v>
       </c>
-      <c r="T34" s="38">
+      <c r="T34" s="36">
         <f>[1]!MF_p_choke_atma(T$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>18.515625</v>
       </c>
-      <c r="U34" s="38">
+      <c r="U34" s="36">
         <f>[1]!MF_p_choke_atma(U$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>19.6435546875</v>
       </c>
-      <c r="V34" s="38">
+      <c r="V34" s="36">
         <f>[1]!MF_p_choke_atma(V$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>20.9326171875</v>
       </c>
-      <c r="W34" s="38">
+      <c r="W34" s="36">
         <f>[1]!MF_p_choke_atma(W$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>22.3828125</v>
       </c>
-      <c r="X34" s="38">
+      <c r="X34" s="36">
         <f>[1]!MF_p_choke_atma(X$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>23.994140625</v>
       </c>
-      <c r="Y34" s="38">
+      <c r="Y34" s="36">
         <f>[1]!MF_p_choke_atma(Y$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>25.78125</v>
       </c>
-      <c r="Z34" s="38">
+      <c r="Z34" s="36">
         <f>[1]!MF_p_choke_atma(Z$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>27.65625</v>
       </c>
-      <c r="AA34" s="38">
+      <c r="AA34" s="36">
         <f>[1]!MF_p_choke_atma(AA$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>29.53125</v>
       </c>
-      <c r="AB34" s="38">
+      <c r="AB34" s="36">
         <f>[1]!MF_p_choke_atma(AB$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>31.34765625</v>
       </c>
-      <c r="AC34" s="38">
+      <c r="AC34" s="36">
         <f>[1]!MF_p_choke_atma(AC$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>33.1640625</v>
       </c>
-      <c r="AD34" s="38">
+      <c r="AD34" s="36">
         <f>[1]!MF_p_choke_atma(AD$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>34.98046875</v>
       </c>
-      <c r="AE34" s="38">
+      <c r="AE34" s="36">
         <f>[1]!MF_p_choke_atma(AE$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>36.6796875</v>
       </c>
-      <c r="AF34" s="38">
+      <c r="AF34" s="36">
         <f>[1]!MF_p_choke_atma(AF$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>38.4375</v>
       </c>
-      <c r="AG34" s="38">
+      <c r="AG34" s="36">
         <f>[1]!MF_p_choke_atma(AG$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>40.078125</v>
       </c>
-      <c r="AH34" s="38">
+      <c r="AH34" s="36">
         <f>[1]!MF_p_choke_atma(AH$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>41.71875</v>
       </c>
-      <c r="AI34" s="38">
+      <c r="AI34" s="36">
         <f>[1]!MF_p_choke_atma(AI$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>43.359375</v>
       </c>
-      <c r="AJ34" s="38">
+      <c r="AJ34" s="36">
         <f>[1]!MF_p_choke_atma(AJ$30,fw_,d_choke,$H34,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>44.94140625</v>
       </c>
@@ -8147,10 +8236,10 @@
     <row r="35" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B35" s="31">
         <f t="array" ref="B35:F36">[1]!MF_p_choke_atma(Qliq_,fw_,d_choke,Plin_,0,d_pipe,T_choke,,PVTstr_)</f>
-        <v>14.232421875</v>
+        <v>12.0853271484375</v>
       </c>
       <c r="C35" s="31">
-        <v>14.232421875</v>
+        <v>12.0853271484375</v>
       </c>
       <c r="D35" s="31">
         <v>12</v>
@@ -8161,118 +8250,118 @@
       <c r="F35" s="31">
         <v>1</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="33">
         <v>20</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I35" s="36">
         <f>[1]!MF_p_choke_atma(I$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>20</v>
       </c>
-      <c r="J35" s="38">
+      <c r="J35" s="36">
         <f>[1]!MF_p_choke_atma(J$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>20.000519752502441</v>
       </c>
-      <c r="K35" s="38">
+      <c r="K35" s="36">
         <f>[1]!MF_p_choke_atma(K$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>20.002079010009766</v>
       </c>
-      <c r="L35" s="38">
+      <c r="L35" s="36">
         <f>[1]!MF_p_choke_atma(L$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>20.008316040039063</v>
       </c>
-      <c r="M35" s="38">
+      <c r="M35" s="36">
         <f>[1]!MF_p_choke_atma(M$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>20.03326416015625</v>
       </c>
-      <c r="N35" s="38">
+      <c r="N35" s="36">
         <f>[1]!MF_p_choke_atma(N$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>20.0518798828125</v>
       </c>
-      <c r="O35" s="38">
+      <c r="O35" s="36">
         <f>[1]!MF_p_choke_atma(O$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>20.2081298828125</v>
       </c>
-      <c r="P35" s="38">
+      <c r="P35" s="36">
         <f>[1]!MF_p_choke_atma(P$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>20.46875</v>
       </c>
-      <c r="Q35" s="38">
+      <c r="Q35" s="36">
         <f>[1]!MF_p_choke_atma(Q$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>20.8349609375</v>
       </c>
-      <c r="R35" s="38">
+      <c r="R35" s="36">
         <f>[1]!MF_p_choke_atma(R$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>21.30859375</v>
       </c>
-      <c r="S35" s="38">
+      <c r="S35" s="36">
         <f>[1]!MF_p_choke_atma(S$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>21.89453125</v>
       </c>
-      <c r="T35" s="38">
+      <c r="T35" s="36">
         <f>[1]!MF_p_choke_atma(T$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>22.587890625</v>
       </c>
-      <c r="U35" s="38">
+      <c r="U35" s="36">
         <f>[1]!MF_p_choke_atma(U$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>23.37890625</v>
       </c>
-      <c r="V35" s="38">
+      <c r="V35" s="36">
         <f>[1]!MF_p_choke_atma(V$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>24.296875</v>
       </c>
-      <c r="W35" s="38">
+      <c r="W35" s="36">
         <f>[1]!MF_p_choke_atma(W$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>25.3125</v>
       </c>
-      <c r="X35" s="38">
+      <c r="X35" s="36">
         <f>[1]!MF_p_choke_atma(X$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>26.4453125</v>
       </c>
-      <c r="Y35" s="38">
+      <c r="Y35" s="36">
         <f>[1]!MF_p_choke_atma(Y$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>27.65625</v>
       </c>
-      <c r="Z35" s="38">
+      <c r="Z35" s="36">
         <f>[1]!MF_p_choke_atma(Z$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>28.984375</v>
       </c>
-      <c r="AA35" s="38">
+      <c r="AA35" s="36">
         <f>[1]!MF_p_choke_atma(AA$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>30.390625</v>
       </c>
-      <c r="AB35" s="38">
+      <c r="AB35" s="36">
         <f>[1]!MF_p_choke_atma(AB$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>31.875</v>
       </c>
-      <c r="AC35" s="38">
+      <c r="AC35" s="36">
         <f>[1]!MF_p_choke_atma(AC$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>33.4375</v>
       </c>
-      <c r="AD35" s="38">
+      <c r="AD35" s="36">
         <f>[1]!MF_p_choke_atma(AD$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>35.078125</v>
       </c>
-      <c r="AE35" s="38">
+      <c r="AE35" s="36">
         <f>[1]!MF_p_choke_atma(AE$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>36.71875</v>
       </c>
-      <c r="AF35" s="38">
+      <c r="AF35" s="36">
         <f>[1]!MF_p_choke_atma(AF$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>38.4375</v>
       </c>
-      <c r="AG35" s="38">
+      <c r="AG35" s="36">
         <f>[1]!MF_p_choke_atma(AG$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>40.078125</v>
       </c>
-      <c r="AH35" s="38">
+      <c r="AH35" s="36">
         <f>[1]!MF_p_choke_atma(AH$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>41.71875</v>
       </c>
-      <c r="AI35" s="38">
+      <c r="AI35" s="36">
         <f>[1]!MF_p_choke_atma(AI$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>43.359375</v>
       </c>
-      <c r="AJ35" s="38">
+      <c r="AJ35" s="36">
         <f>[1]!MF_p_choke_atma(AJ$30,fw_,d_choke,$H35,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>44.921875</v>
       </c>
@@ -8293,118 +8382,118 @@
       <c r="F36" s="32" t="str">
         <v>c_calibr_fr</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="33">
         <v>30</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I36" s="36">
         <f>[1]!MF_p_choke_atma(I$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>30</v>
       </c>
-      <c r="J36" s="38">
+      <c r="J36" s="36">
         <f>[1]!MF_p_choke_atma(J$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>30.000352263450623</v>
       </c>
-      <c r="K36" s="38">
+      <c r="K36" s="36">
         <f>[1]!MF_p_choke_atma(K$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>30.00140905380249</v>
       </c>
-      <c r="L36" s="38">
+      <c r="L36" s="36">
         <f>[1]!MF_p_choke_atma(L$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>30.005636215209961</v>
       </c>
-      <c r="M36" s="38">
+      <c r="M36" s="36">
         <f>[1]!MF_p_choke_atma(M$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>30.022544860839844</v>
       </c>
-      <c r="N36" s="38">
+      <c r="N36" s="36">
         <f>[1]!MF_p_choke_atma(N$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>30.035247802734375</v>
       </c>
-      <c r="O36" s="38">
+      <c r="O36" s="36">
         <f>[1]!MF_p_choke_atma(O$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>30.1409912109375</v>
       </c>
-      <c r="P36" s="38">
+      <c r="P36" s="36">
         <f>[1]!MF_p_choke_atma(P$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>30.31768798828125</v>
       </c>
-      <c r="Q36" s="38">
+      <c r="Q36" s="36">
         <f>[1]!MF_p_choke_atma(Q$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>30.56396484375</v>
       </c>
-      <c r="R36" s="38">
+      <c r="R36" s="36">
         <f>[1]!MF_p_choke_atma(R$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>30.882568359375</v>
       </c>
-      <c r="S36" s="38">
+      <c r="S36" s="36">
         <f>[1]!MF_p_choke_atma(S$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>31.26708984375</v>
       </c>
-      <c r="T36" s="38">
+      <c r="T36" s="36">
         <f>[1]!MF_p_choke_atma(T$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>31.72119140625</v>
       </c>
-      <c r="U36" s="38">
+      <c r="U36" s="36">
         <f>[1]!MF_p_choke_atma(U$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>32.24853515625</v>
       </c>
-      <c r="V36" s="38">
+      <c r="V36" s="36">
         <f>[1]!MF_p_choke_atma(V$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>32.841796875</v>
       </c>
-      <c r="W36" s="38">
+      <c r="W36" s="36">
         <f>[1]!MF_p_choke_atma(W$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>33.5009765625</v>
       </c>
-      <c r="X36" s="38">
+      <c r="X36" s="36">
         <f>[1]!MF_p_choke_atma(X$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>34.21875</v>
       </c>
-      <c r="Y36" s="38">
+      <c r="Y36" s="36">
         <f>[1]!MF_p_choke_atma(Y$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>35.009765625</v>
       </c>
-      <c r="Z36" s="38">
+      <c r="Z36" s="36">
         <f>[1]!MF_p_choke_atma(Z$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>35.859375</v>
       </c>
-      <c r="AA36" s="38">
+      <c r="AA36" s="36">
         <f>[1]!MF_p_choke_atma(AA$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>36.767578125</v>
       </c>
-      <c r="AB36" s="38">
+      <c r="AB36" s="36">
         <f>[1]!MF_p_choke_atma(AB$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>37.734375</v>
       </c>
-      <c r="AC36" s="38">
+      <c r="AC36" s="36">
         <f>[1]!MF_p_choke_atma(AC$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>38.73046875</v>
       </c>
-      <c r="AD36" s="38">
+      <c r="AD36" s="36">
         <f>[1]!MF_p_choke_atma(AD$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>39.78515625</v>
       </c>
-      <c r="AE36" s="38">
+      <c r="AE36" s="36">
         <f>[1]!MF_p_choke_atma(AE$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>40.8984375</v>
       </c>
-      <c r="AF36" s="38">
+      <c r="AF36" s="36">
         <f>[1]!MF_p_choke_atma(AF$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>42.041015625</v>
       </c>
-      <c r="AG36" s="38">
+      <c r="AG36" s="36">
         <f>[1]!MF_p_choke_atma(AG$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>43.2421875</v>
       </c>
-      <c r="AH36" s="38">
+      <c r="AH36" s="36">
         <f>[1]!MF_p_choke_atma(AH$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>44.4140625</v>
       </c>
-      <c r="AI36" s="38">
+      <c r="AI36" s="36">
         <f>[1]!MF_p_choke_atma(AI$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>45.64453125</v>
       </c>
-      <c r="AJ36" s="38">
+      <c r="AJ36" s="36">
         <f>[1]!MF_p_choke_atma(AJ$30,fw_,d_choke,$H36,0,d_pipe,T_choke,,PVTstr_)</f>
         <v>46.93359375</v>
       </c>
@@ -8430,7 +8519,7 @@
     </row>
     <row r="39" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B39" s="33">
-        <f t="array" ref="B39:F40">[1]!MF_qliq_choke_sm3day(fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,,PVTstr_)</f>
+        <f t="array" ref="B39:F40">[1]!MF_q_choke_sm3day(fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,,PVTstr_)</f>
         <v>121.37380857929556</v>
       </c>
       <c r="C39" s="33">
@@ -8465,26 +8554,26 @@
       <c r="H40" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I40" s="19">
-        <f>[1]!MF_qliq_choke_sm3day(fw_,d_choke,H48,1,d_pipe,T_choke,,PVTstr_)</f>
-        <v>170.27102752455599</v>
+      <c r="I40" s="19" t="e">
+        <f ca="1">[1]!MF_qliq_choke_sm3day(fw_,d_choke,H48,1,d_pipe,T_choke,,PVTstr_)</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="41" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="I41" s="37" t="s">
+      <c r="I41" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J41" s="36"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="36"/>
-      <c r="P41" s="36"/>
-      <c r="Q41" s="36"/>
-      <c r="R41" s="36"/>
-      <c r="S41" s="36"/>
-      <c r="T41" s="36"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
     </row>
     <row r="42" spans="2:44" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
@@ -8603,926 +8692,926 @@
       </c>
     </row>
     <row r="43" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B43" s="39">
+      <c r="B43" s="37">
         <f t="array" ref="B43:F44">[1]!MF_calibr_choke_fr(Qliq_,fw_,d_choke,Pbuf_,Plin_,d_pipe,T_choke,PVTstr_)</f>
-        <v>0.41195049068048445</v>
-      </c>
-      <c r="C43" s="38">
+        <v>8.2390098136096893E-2</v>
+      </c>
+      <c r="C43" s="36">
         <v>26</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="36">
         <v>12</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E43" s="36">
         <v>30</v>
       </c>
-      <c r="F43" s="39">
-        <v>0.41195049068048445</v>
-      </c>
-      <c r="H43" s="2">
+      <c r="F43" s="37">
+        <v>8.2390098136096893E-2</v>
+      </c>
+      <c r="H43" s="33">
         <v>10</v>
       </c>
-      <c r="I43" s="38">
+      <c r="I43" s="36">
         <f>[1]!MF_p_choke_atma(I$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>10</v>
       </c>
-      <c r="J43" s="38">
+      <c r="J43" s="36">
         <f>[1]!MF_p_choke_atma(J$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>9.764404296875</v>
       </c>
-      <c r="K43" s="38">
+      <c r="K43" s="36">
         <f>[1]!MF_p_choke_atma(K$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>9.0966796875</v>
       </c>
-      <c r="L43" s="38">
+      <c r="L43" s="36">
         <f>[1]!MF_p_choke_atma(L$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>8.4375</v>
       </c>
-      <c r="M43" s="38">
+      <c r="M43" s="36">
         <f>[1]!MF_p_choke_atma(M$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>7.67578125</v>
       </c>
-      <c r="N43" s="38">
+      <c r="N43" s="36">
         <f>[1]!MF_p_choke_atma(N$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>6.8359375</v>
       </c>
-      <c r="O43" s="38">
+      <c r="O43" s="36">
         <f>[1]!MF_p_choke_atma(O$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>5.625</v>
       </c>
-      <c r="P43" s="38">
+      <c r="P43" s="36">
         <f>[1]!MF_p_choke_atma(P$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="Q43" s="38">
+      <c r="Q43" s="36">
         <f>[1]!MF_p_choke_atma(Q$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="R43" s="38">
+      <c r="R43" s="36">
         <f>[1]!MF_p_choke_atma(R$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="S43" s="38">
+      <c r="S43" s="36">
         <f>[1]!MF_p_choke_atma(S$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="T43" s="38">
+      <c r="T43" s="36">
         <f>[1]!MF_p_choke_atma(T$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="U43" s="38">
+      <c r="U43" s="36">
         <f>[1]!MF_p_choke_atma(U$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="V43" s="38">
+      <c r="V43" s="36">
         <f>[1]!MF_p_choke_atma(V$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="W43" s="38">
+      <c r="W43" s="36">
         <f>[1]!MF_p_choke_atma(W$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="X43" s="38">
+      <c r="X43" s="36">
         <f>[1]!MF_p_choke_atma(X$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="Y43" s="38">
+      <c r="Y43" s="36">
         <f>[1]!MF_p_choke_atma(Y$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="Z43" s="38">
+      <c r="Z43" s="36">
         <f>[1]!MF_p_choke_atma(Z$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AA43" s="38">
+      <c r="AA43" s="36">
         <f>[1]!MF_p_choke_atma(AA$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AB43" s="38">
+      <c r="AB43" s="36">
         <f>[1]!MF_p_choke_atma(AB$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AC43" s="38">
+      <c r="AC43" s="36">
         <f>[1]!MF_p_choke_atma(AC$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AD43" s="38">
+      <c r="AD43" s="36">
         <f>[1]!MF_p_choke_atma(AD$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AE43" s="38">
+      <c r="AE43" s="36">
         <f>[1]!MF_p_choke_atma(AE$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AF43" s="38">
+      <c r="AF43" s="36">
         <f>[1]!MF_p_choke_atma(AF$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AG43" s="38">
+      <c r="AG43" s="36">
         <f>[1]!MF_p_choke_atma(AG$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AH43" s="38">
+      <c r="AH43" s="36">
         <f>[1]!MF_p_choke_atma(AH$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AI43" s="38">
+      <c r="AI43" s="36">
         <f>[1]!MF_p_choke_atma(AI$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AJ43" s="38">
+      <c r="AJ43" s="36">
         <f>[1]!MF_p_choke_atma(AJ$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AK43" s="38">
+      <c r="AK43" s="36">
         <f>[1]!MF_p_choke_atma(AK$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AL43" s="38">
+      <c r="AL43" s="36">
         <f>[1]!MF_p_choke_atma(AL$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AM43" s="38">
+      <c r="AM43" s="36">
         <f>[1]!MF_p_choke_atma(AM$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AN43" s="38">
+      <c r="AN43" s="36">
         <f>[1]!MF_p_choke_atma(AN$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AO43" s="38">
+      <c r="AO43" s="36">
         <f>[1]!MF_p_choke_atma(AO$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AP43" s="38">
+      <c r="AP43" s="36">
         <f>[1]!MF_p_choke_atma(AP$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AQ43" s="38">
+      <c r="AQ43" s="36">
         <f>[1]!MF_p_choke_atma(AQ$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AR43" s="38">
+      <c r="AR43" s="36">
         <f>[1]!MF_p_choke_atma(AR$42,fw_,d_choke,$H43,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="44" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="B44" s="40" t="str">
+      <c r="B44" s="38" t="str">
         <v>c_calibr_fr</v>
       </c>
-      <c r="C44" s="40" t="str">
+      <c r="C44" s="38" t="str">
         <v>p_intake_atma</v>
       </c>
-      <c r="D44" s="40" t="str">
+      <c r="D44" s="38" t="str">
         <v>p_out_atma</v>
       </c>
-      <c r="E44" s="40" t="str">
+      <c r="E44" s="38" t="str">
         <v>t_choke_C</v>
       </c>
-      <c r="F44" s="40" t="str">
+      <c r="F44" s="38" t="str">
         <v>c_calibr_fr</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="33">
         <v>15</v>
       </c>
-      <c r="I44" s="38">
+      <c r="I44" s="36">
         <f>[1]!MF_p_choke_atma(I$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>15</v>
       </c>
-      <c r="J44" s="38">
+      <c r="J44" s="36">
         <f>[1]!MF_p_choke_atma(J$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>14.843902587890625</v>
       </c>
-      <c r="K44" s="38">
+      <c r="K44" s="36">
         <f>[1]!MF_p_choke_atma(K$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>14.43603515625</v>
       </c>
-      <c r="L44" s="38">
+      <c r="L44" s="36">
         <f>[1]!MF_p_choke_atma(L$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>14.095458984375</v>
       </c>
-      <c r="M44" s="38">
+      <c r="M44" s="36">
         <f>[1]!MF_p_choke_atma(M$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>13.7841796875</v>
       </c>
-      <c r="N44" s="38">
+      <c r="N44" s="36">
         <f>[1]!MF_p_choke_atma(N$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>13.564453125</v>
       </c>
-      <c r="O44" s="38">
+      <c r="O44" s="36">
         <f>[1]!MF_p_choke_atma(O$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>13.4912109375</v>
       </c>
-      <c r="P44" s="38">
+      <c r="P44" s="36">
         <f>[1]!MF_p_choke_atma(P$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>13.4912109375</v>
       </c>
-      <c r="Q44" s="38">
+      <c r="Q44" s="36">
         <f>[1]!MF_p_choke_atma(Q$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>12.6123046875</v>
       </c>
-      <c r="R44" s="38">
+      <c r="R44" s="36">
         <f>[1]!MF_p_choke_atma(R$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>11.923828125</v>
       </c>
-      <c r="S44" s="38">
+      <c r="S44" s="36">
         <f>[1]!MF_p_choke_atma(S$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>11.5869140625</v>
       </c>
-      <c r="T44" s="38">
+      <c r="T44" s="36">
         <f>[1]!MF_p_choke_atma(T$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>11.1767578125</v>
       </c>
-      <c r="U44" s="38">
+      <c r="U44" s="36">
         <f>[1]!MF_p_choke_atma(U$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>10.3125</v>
       </c>
-      <c r="V44" s="38">
+      <c r="V44" s="36">
         <f>[1]!MF_p_choke_atma(V$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>8.4375</v>
       </c>
-      <c r="W44" s="38">
+      <c r="W44" s="36">
         <f>[1]!MF_p_choke_atma(W$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="X44" s="38">
+      <c r="X44" s="36">
         <f>[1]!MF_p_choke_atma(X$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="Y44" s="38">
+      <c r="Y44" s="36">
         <f>[1]!MF_p_choke_atma(Y$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="Z44" s="38">
+      <c r="Z44" s="36">
         <f>[1]!MF_p_choke_atma(Z$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AA44" s="38">
+      <c r="AA44" s="36">
         <f>[1]!MF_p_choke_atma(AA$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AB44" s="38">
+      <c r="AB44" s="36">
         <f>[1]!MF_p_choke_atma(AB$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AC44" s="38">
+      <c r="AC44" s="36">
         <f>[1]!MF_p_choke_atma(AC$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AD44" s="38">
+      <c r="AD44" s="36">
         <f>[1]!MF_p_choke_atma(AD$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AE44" s="38">
+      <c r="AE44" s="36">
         <f>[1]!MF_p_choke_atma(AE$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AF44" s="38">
+      <c r="AF44" s="36">
         <f>[1]!MF_p_choke_atma(AF$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AG44" s="38">
+      <c r="AG44" s="36">
         <f>[1]!MF_p_choke_atma(AG$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AH44" s="38">
+      <c r="AH44" s="36">
         <f>[1]!MF_p_choke_atma(AH$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AI44" s="38">
+      <c r="AI44" s="36">
         <f>[1]!MF_p_choke_atma(AI$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AJ44" s="38">
+      <c r="AJ44" s="36">
         <f>[1]!MF_p_choke_atma(AJ$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AK44" s="38">
+      <c r="AK44" s="36">
         <f>[1]!MF_p_choke_atma(AK$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AL44" s="38">
+      <c r="AL44" s="36">
         <f>[1]!MF_p_choke_atma(AL$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AM44" s="38">
+      <c r="AM44" s="36">
         <f>[1]!MF_p_choke_atma(AM$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AN44" s="38">
+      <c r="AN44" s="36">
         <f>[1]!MF_p_choke_atma(AN$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AO44" s="38">
+      <c r="AO44" s="36">
         <f>[1]!MF_p_choke_atma(AO$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AP44" s="38">
+      <c r="AP44" s="36">
         <f>[1]!MF_p_choke_atma(AP$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AQ44" s="38">
+      <c r="AQ44" s="36">
         <f>[1]!MF_p_choke_atma(AQ$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AR44" s="38">
+      <c r="AR44" s="36">
         <f>[1]!MF_p_choke_atma(AR$42,fw_,d_choke,$H44,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="45" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="H45" s="2">
+      <c r="H45" s="33">
         <v>20</v>
       </c>
-      <c r="I45" s="38">
+      <c r="I45" s="36">
         <f>[1]!MF_p_choke_atma(I$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>20</v>
       </c>
-      <c r="J45" s="38">
+      <c r="J45" s="36">
         <f>[1]!MF_p_choke_atma(J$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>19.8822021484375</v>
       </c>
-      <c r="K45" s="38">
+      <c r="K45" s="36">
         <f>[1]!MF_p_choke_atma(K$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>19.58251953125</v>
       </c>
-      <c r="L45" s="38">
+      <c r="L45" s="36">
         <f>[1]!MF_p_choke_atma(L$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>19.33837890625</v>
       </c>
-      <c r="M45" s="38">
+      <c r="M45" s="36">
         <f>[1]!MF_p_choke_atma(M$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>19.1259765625</v>
       </c>
-      <c r="N45" s="38">
+      <c r="N45" s="36">
         <f>[1]!MF_p_choke_atma(N$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>18.98193359375</v>
       </c>
-      <c r="O45" s="38">
+      <c r="O45" s="36">
         <f>[1]!MF_p_choke_atma(O$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>18.9306640625</v>
       </c>
-      <c r="P45" s="38">
+      <c r="P45" s="36">
         <f>[1]!MF_p_choke_atma(P$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>18.9306640625</v>
       </c>
-      <c r="Q45" s="38">
+      <c r="Q45" s="36">
         <f>[1]!MF_p_choke_atma(Q$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>18.3984375</v>
       </c>
-      <c r="R45" s="38">
+      <c r="R45" s="36">
         <f>[1]!MF_p_choke_atma(R$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>18.037109375</v>
       </c>
-      <c r="S45" s="38">
+      <c r="S45" s="36">
         <f>[1]!MF_p_choke_atma(S$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>17.880859375</v>
       </c>
-      <c r="T45" s="38">
+      <c r="T45" s="36">
         <f>[1]!MF_p_choke_atma(T$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>17.705078125</v>
       </c>
-      <c r="U45" s="38">
+      <c r="U45" s="36">
         <f>[1]!MF_p_choke_atma(U$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>17.431640625</v>
       </c>
-      <c r="V45" s="38">
+      <c r="V45" s="36">
         <f>[1]!MF_p_choke_atma(V$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>17.236328125</v>
       </c>
-      <c r="W45" s="38">
+      <c r="W45" s="36">
         <f>[1]!MF_p_choke_atma(W$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>17.216796875</v>
       </c>
-      <c r="X45" s="38">
+      <c r="X45" s="36">
         <f>[1]!MF_p_choke_atma(X$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>16.171875</v>
       </c>
-      <c r="Y45" s="38">
+      <c r="Y45" s="36">
         <f>[1]!MF_p_choke_atma(Y$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>14.53125</v>
       </c>
-      <c r="Z45" s="38">
+      <c r="Z45" s="36">
         <f>[1]!MF_p_choke_atma(Z$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>12.8125</v>
       </c>
-      <c r="AA45" s="38">
+      <c r="AA45" s="36">
         <f>[1]!MF_p_choke_atma(AA$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>11.25</v>
       </c>
-      <c r="AB45" s="38">
+      <c r="AB45" s="36">
         <f>[1]!MF_p_choke_atma(AB$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AC45" s="38">
+      <c r="AC45" s="36">
         <f>[1]!MF_p_choke_atma(AC$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AD45" s="38">
+      <c r="AD45" s="36">
         <f>[1]!MF_p_choke_atma(AD$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AE45" s="38">
+      <c r="AE45" s="36">
         <f>[1]!MF_p_choke_atma(AE$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AF45" s="38">
+      <c r="AF45" s="36">
         <f>[1]!MF_p_choke_atma(AF$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AG45" s="38">
+      <c r="AG45" s="36">
         <f>[1]!MF_p_choke_atma(AG$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AH45" s="38">
+      <c r="AH45" s="36">
         <f>[1]!MF_p_choke_atma(AH$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AI45" s="38">
+      <c r="AI45" s="36">
         <f>[1]!MF_p_choke_atma(AI$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AJ45" s="38">
+      <c r="AJ45" s="36">
         <f>[1]!MF_p_choke_atma(AJ$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AK45" s="38">
+      <c r="AK45" s="36">
         <f>[1]!MF_p_choke_atma(AK$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AL45" s="38">
+      <c r="AL45" s="36">
         <f>[1]!MF_p_choke_atma(AL$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AM45" s="38">
+      <c r="AM45" s="36">
         <f>[1]!MF_p_choke_atma(AM$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AN45" s="38">
+      <c r="AN45" s="36">
         <f>[1]!MF_p_choke_atma(AN$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AO45" s="38">
+      <c r="AO45" s="36">
         <f>[1]!MF_p_choke_atma(AO$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AP45" s="38">
+      <c r="AP45" s="36">
         <f>[1]!MF_p_choke_atma(AP$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AQ45" s="38">
+      <c r="AQ45" s="36">
         <f>[1]!MF_p_choke_atma(AQ$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AR45" s="38">
+      <c r="AR45" s="36">
         <f>[1]!MF_p_choke_atma(AR$42,fw_,d_choke,$H45,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="46" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="H46" s="2">
+      <c r="H46" s="33">
         <v>25</v>
       </c>
-      <c r="I46" s="38">
+      <c r="I46" s="36">
         <f>[1]!MF_p_choke_atma(I$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>25</v>
       </c>
-      <c r="J46" s="38">
+      <c r="J46" s="36">
         <f>[1]!MF_p_choke_atma(J$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>24.9053955078125</v>
       </c>
-      <c r="K46" s="38">
+      <c r="K46" s="36">
         <f>[1]!MF_p_choke_atma(K$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>24.666595458984375</v>
       </c>
-      <c r="L46" s="38">
+      <c r="L46" s="36">
         <f>[1]!MF_p_choke_atma(L$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>24.47509765625</v>
       </c>
-      <c r="M46" s="38">
+      <c r="M46" s="36">
         <f>[1]!MF_p_choke_atma(M$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>24.310302734375</v>
       </c>
-      <c r="N46" s="38">
+      <c r="N46" s="36">
         <f>[1]!MF_p_choke_atma(N$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>24.1973876953125</v>
       </c>
-      <c r="O46" s="38">
+      <c r="O46" s="36">
         <f>[1]!MF_p_choke_atma(O$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>24.1607666015625</v>
       </c>
-      <c r="P46" s="38">
+      <c r="P46" s="36">
         <f>[1]!MF_p_choke_atma(P$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>24.15771484375</v>
       </c>
-      <c r="Q46" s="38">
+      <c r="Q46" s="36">
         <f>[1]!MF_p_choke_atma(Q$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>23.760986328125</v>
       </c>
-      <c r="R46" s="38">
+      <c r="R46" s="36">
         <f>[1]!MF_p_choke_atma(R$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>23.49853515625</v>
       </c>
-      <c r="S46" s="38">
+      <c r="S46" s="36">
         <f>[1]!MF_p_choke_atma(S$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>23.382568359375</v>
       </c>
-      <c r="T46" s="38">
+      <c r="T46" s="36">
         <f>[1]!MF_p_choke_atma(T$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>23.2666015625</v>
       </c>
-      <c r="U46" s="38">
+      <c r="U46" s="36">
         <f>[1]!MF_p_choke_atma(U$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>23.077392578125</v>
       </c>
-      <c r="V46" s="38">
+      <c r="V46" s="36">
         <f>[1]!MF_p_choke_atma(V$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>22.943115234375</v>
       </c>
-      <c r="W46" s="38">
+      <c r="W46" s="36">
         <f>[1]!MF_p_choke_atma(W$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>22.930908203125</v>
       </c>
-      <c r="X46" s="38">
+      <c r="X46" s="36">
         <f>[1]!MF_p_choke_atma(X$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>22.265625</v>
       </c>
-      <c r="Y46" s="38">
+      <c r="Y46" s="36">
         <f>[1]!MF_p_choke_atma(Y$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>21.435546875</v>
       </c>
-      <c r="Z46" s="38">
+      <c r="Z46" s="36">
         <f>[1]!MF_p_choke_atma(Z$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>20.8984375</v>
       </c>
-      <c r="AA46" s="38">
+      <c r="AA46" s="36">
         <f>[1]!MF_p_choke_atma(AA$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>20.7763671875</v>
       </c>
-      <c r="AB46" s="38">
+      <c r="AB46" s="36">
         <f>[1]!MF_p_choke_atma(AB$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>20.7763671875</v>
       </c>
-      <c r="AC46" s="38">
+      <c r="AC46" s="36">
         <f>[1]!MF_p_choke_atma(AC$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>19.5556640625</v>
       </c>
-      <c r="AD46" s="38">
+      <c r="AD46" s="36">
         <f>[1]!MF_p_choke_atma(AD$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>17.529296875</v>
       </c>
-      <c r="AE46" s="38">
+      <c r="AE46" s="36">
         <f>[1]!MF_p_choke_atma(AE$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>16.552734375</v>
       </c>
-      <c r="AF46" s="38">
+      <c r="AF46" s="36">
         <f>[1]!MF_p_choke_atma(AF$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>14.84375</v>
       </c>
-      <c r="AG46" s="38">
+      <c r="AG46" s="36">
         <f>[1]!MF_p_choke_atma(AG$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AH46" s="38">
+      <c r="AH46" s="36">
         <f>[1]!MF_p_choke_atma(AH$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AI46" s="38">
+      <c r="AI46" s="36">
         <f>[1]!MF_p_choke_atma(AI$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AJ46" s="38">
+      <c r="AJ46" s="36">
         <f>[1]!MF_p_choke_atma(AJ$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AK46" s="38">
+      <c r="AK46" s="36">
         <f>[1]!MF_p_choke_atma(AK$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AL46" s="38">
+      <c r="AL46" s="36">
         <f>[1]!MF_p_choke_atma(AL$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AM46" s="38">
+      <c r="AM46" s="36">
         <f>[1]!MF_p_choke_atma(AM$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AN46" s="38">
+      <c r="AN46" s="36">
         <f>[1]!MF_p_choke_atma(AN$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AO46" s="38">
+      <c r="AO46" s="36">
         <f>[1]!MF_p_choke_atma(AO$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AP46" s="38">
+      <c r="AP46" s="36">
         <f>[1]!MF_p_choke_atma(AP$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AQ46" s="38">
+      <c r="AQ46" s="36">
         <f>[1]!MF_p_choke_atma(AQ$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AR46" s="38">
+      <c r="AR46" s="36">
         <f>[1]!MF_p_choke_atma(AR$42,fw_,d_choke,$H46,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="47" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="H47" s="2">
+      <c r="H47" s="33">
         <v>30</v>
       </c>
-      <c r="I47" s="38">
+      <c r="I47" s="36">
         <f>[1]!MF_p_choke_atma(I$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>30</v>
       </c>
-      <c r="J47" s="38">
+      <c r="J47" s="36">
         <f>[1]!MF_p_choke_atma(J$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>29.92034912109375</v>
       </c>
-      <c r="K47" s="38">
+      <c r="K47" s="36">
         <f>[1]!MF_p_choke_atma(K$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>29.72076416015625</v>
       </c>
-      <c r="L47" s="38">
+      <c r="L47" s="36">
         <f>[1]!MF_p_choke_atma(L$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>29.5623779296875</v>
       </c>
-      <c r="M47" s="38">
+      <c r="M47" s="36">
         <f>[1]!MF_p_choke_atma(M$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>29.425048828125</v>
       </c>
-      <c r="N47" s="38">
+      <c r="N47" s="36">
         <f>[1]!MF_p_choke_atma(N$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>29.33349609375</v>
       </c>
-      <c r="O47" s="38">
+      <c r="O47" s="36">
         <f>[1]!MF_p_choke_atma(O$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>29.30419921875</v>
       </c>
-      <c r="P47" s="38">
+      <c r="P47" s="36">
         <f>[1]!MF_p_choke_atma(P$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>29.3023681640625</v>
       </c>
-      <c r="Q47" s="38">
+      <c r="Q47" s="36">
         <f>[1]!MF_p_choke_atma(Q$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>28.978271484375</v>
       </c>
-      <c r="R47" s="38">
+      <c r="R47" s="36">
         <f>[1]!MF_p_choke_atma(R$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>28.765869140625</v>
       </c>
-      <c r="S47" s="38">
+      <c r="S47" s="36">
         <f>[1]!MF_p_choke_atma(S$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>28.67431640625</v>
       </c>
-      <c r="T47" s="38">
+      <c r="T47" s="36">
         <f>[1]!MF_p_choke_atma(T$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>28.5791015625</v>
       </c>
-      <c r="U47" s="38">
+      <c r="U47" s="36">
         <f>[1]!MF_p_choke_atma(U$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>28.4326171875</v>
       </c>
-      <c r="V47" s="38">
+      <c r="V47" s="36">
         <f>[1]!MF_p_choke_atma(V$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>28.330078125</v>
       </c>
-      <c r="W47" s="38">
+      <c r="W47" s="36">
         <f>[1]!MF_p_choke_atma(W$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>28.32275390625</v>
       </c>
-      <c r="X47" s="38">
+      <c r="X47" s="36">
         <f>[1]!MF_p_choke_atma(X$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>27.8173828125</v>
       </c>
-      <c r="Y47" s="38">
+      <c r="Y47" s="36">
         <f>[1]!MF_p_choke_atma(Y$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>27.20947265625</v>
       </c>
-      <c r="Z47" s="38">
+      <c r="Z47" s="36">
         <f>[1]!MF_p_choke_atma(Z$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>26.8212890625</v>
       </c>
-      <c r="AA47" s="38">
+      <c r="AA47" s="36">
         <f>[1]!MF_p_choke_atma(AA$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>26.748046875</v>
       </c>
-      <c r="AB47" s="38">
+      <c r="AB47" s="36">
         <f>[1]!MF_p_choke_atma(AB$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>26.7333984375</v>
       </c>
-      <c r="AC47" s="38">
+      <c r="AC47" s="36">
         <f>[1]!MF_p_choke_atma(AC$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>25.95703125</v>
       </c>
-      <c r="AD47" s="38">
+      <c r="AD47" s="36">
         <f>[1]!MF_p_choke_atma(AD$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>24.90234375</v>
       </c>
-      <c r="AE47" s="38">
+      <c r="AE47" s="36">
         <f>[1]!MF_p_choke_atma(AE$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>24.55078125</v>
       </c>
-      <c r="AF47" s="38">
+      <c r="AF47" s="36">
         <f>[1]!MF_p_choke_atma(AF$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>24.140625</v>
       </c>
-      <c r="AG47" s="38">
+      <c r="AG47" s="36">
         <f>[1]!MF_p_choke_atma(AG$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>24.08203125</v>
       </c>
-      <c r="AH47" s="38">
+      <c r="AH47" s="36">
         <f>[1]!MF_p_choke_atma(AH$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>22.79296875</v>
       </c>
-      <c r="AI47" s="38">
+      <c r="AI47" s="36">
         <f>[1]!MF_p_choke_atma(AI$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>21.85546875</v>
       </c>
-      <c r="AJ47" s="38">
+      <c r="AJ47" s="36">
         <f>[1]!MF_p_choke_atma(AJ$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>19.6875</v>
       </c>
-      <c r="AK47" s="38">
+      <c r="AK47" s="36">
         <f>[1]!MF_p_choke_atma(AK$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>16.875</v>
       </c>
-      <c r="AL47" s="38">
+      <c r="AL47" s="36">
         <f>[1]!MF_p_choke_atma(AL$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AM47" s="38">
+      <c r="AM47" s="36">
         <f>[1]!MF_p_choke_atma(AM$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AN47" s="38">
+      <c r="AN47" s="36">
         <f>[1]!MF_p_choke_atma(AN$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AO47" s="38">
+      <c r="AO47" s="36">
         <f>[1]!MF_p_choke_atma(AO$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AP47" s="38">
+      <c r="AP47" s="36">
         <f>[1]!MF_p_choke_atma(AP$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AQ47" s="38">
+      <c r="AQ47" s="36">
         <f>[1]!MF_p_choke_atma(AQ$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
-      <c r="AR47" s="38">
+      <c r="AR47" s="36">
         <f>[1]!MF_p_choke_atma(AR$42,fw_,d_choke,$H47,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
     </row>
     <row r="48" spans="2:44" x14ac:dyDescent="0.2">
-      <c r="H48" s="2">
+      <c r="H48" s="33">
         <v>35</v>
       </c>
-      <c r="I48" s="38">
+      <c r="I48" s="36">
         <f>[1]!MF_p_choke_atma(I$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>35</v>
       </c>
-      <c r="J48" s="38">
+      <c r="J48" s="36">
         <f>[1]!MF_p_choke_atma(J$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>34.931106567382813</v>
       </c>
-      <c r="K48" s="38">
+      <c r="K48" s="36">
         <f>[1]!MF_p_choke_atma(K$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>34.759674072265625</v>
       </c>
-      <c r="L48" s="38">
+      <c r="L48" s="36">
         <f>[1]!MF_p_choke_atma(L$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>34.622955322265625</v>
       </c>
-      <c r="M48" s="38">
+      <c r="M48" s="36">
         <f>[1]!MF_p_choke_atma(M$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>34.50653076171875</v>
       </c>
-      <c r="N48" s="38">
+      <c r="N48" s="36">
         <f>[1]!MF_p_choke_atma(N$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>34.427490234375</v>
       </c>
-      <c r="O48" s="38">
+      <c r="O48" s="36">
         <f>[1]!MF_p_choke_atma(O$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>34.40185546875</v>
       </c>
-      <c r="P48" s="38">
+      <c r="P48" s="36">
         <f>[1]!MF_p_choke_atma(P$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>34.39971923828125</v>
       </c>
-      <c r="Q48" s="38">
+      <c r="Q48" s="36">
         <f>[1]!MF_p_choke_atma(Q$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>34.1241455078125</v>
       </c>
-      <c r="R48" s="38">
+      <c r="R48" s="36">
         <f>[1]!MF_p_choke_atma(R$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>33.948974609375</v>
       </c>
-      <c r="S48" s="38">
+      <c r="S48" s="36">
         <f>[1]!MF_p_choke_atma(S$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>33.8720703125</v>
       </c>
-      <c r="T48" s="38">
+      <c r="T48" s="36">
         <f>[1]!MF_p_choke_atma(T$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>33.7908935546875</v>
       </c>
-      <c r="U48" s="38">
+      <c r="U48" s="36">
         <f>[1]!MF_p_choke_atma(U$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>33.6669921875</v>
       </c>
-      <c r="V48" s="38">
+      <c r="V48" s="36">
         <f>[1]!MF_p_choke_atma(V$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>33.58154296875</v>
       </c>
-      <c r="W48" s="38">
+      <c r="W48" s="36">
         <f>[1]!MF_p_choke_atma(W$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>33.572998046875</v>
       </c>
-      <c r="X48" s="38">
+      <c r="X48" s="36">
         <f>[1]!MF_p_choke_atma(X$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>33.154296875</v>
       </c>
-      <c r="Y48" s="38">
+      <c r="Y48" s="36">
         <f>[1]!MF_p_choke_atma(Y$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>32.667236328125</v>
       </c>
-      <c r="Z48" s="38">
+      <c r="Z48" s="36">
         <f>[1]!MF_p_choke_atma(Z$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>32.359619140625</v>
       </c>
-      <c r="AA48" s="38">
+      <c r="AA48" s="36">
         <f>[1]!MF_p_choke_atma(AA$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>32.2998046875</v>
       </c>
-      <c r="AB48" s="38">
+      <c r="AB48" s="36">
         <f>[1]!MF_p_choke_atma(AB$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>32.291259765625</v>
       </c>
-      <c r="AC48" s="38">
+      <c r="AC48" s="36">
         <f>[1]!MF_p_choke_atma(AC$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>31.6845703125</v>
       </c>
-      <c r="AD48" s="38">
+      <c r="AD48" s="36">
         <f>[1]!MF_p_choke_atma(AD$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>30.8984375</v>
       </c>
-      <c r="AE48" s="38">
+      <c r="AE48" s="36">
         <f>[1]!MF_p_choke_atma(AE$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>30.64208984375</v>
       </c>
-      <c r="AF48" s="38">
+      <c r="AF48" s="36">
         <f>[1]!MF_p_choke_atma(AF$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>30.36865234375</v>
       </c>
-      <c r="AG48" s="38">
+      <c r="AG48" s="36">
         <f>[1]!MF_p_choke_atma(AG$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>30.3173828125</v>
       </c>
-      <c r="AH48" s="38">
+      <c r="AH48" s="36">
         <f>[1]!MF_p_choke_atma(AH$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>29.47998046875</v>
       </c>
-      <c r="AI48" s="38">
+      <c r="AI48" s="36">
         <f>[1]!MF_p_choke_atma(AI$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>28.916015625</v>
       </c>
-      <c r="AJ48" s="38">
+      <c r="AJ48" s="36">
         <f>[1]!MF_p_choke_atma(AJ$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>27.9248046875</v>
       </c>
-      <c r="AK48" s="38">
+      <c r="AK48" s="36">
         <f>[1]!MF_p_choke_atma(AK$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>27.3095703125</v>
       </c>
-      <c r="AL48" s="38">
+      <c r="AL48" s="36">
         <f>[1]!MF_p_choke_atma(AL$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>27.275390625</v>
       </c>
-      <c r="AM48" s="38">
+      <c r="AM48" s="36">
         <f>[1]!MF_p_choke_atma(AM$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>26.11328125</v>
       </c>
-      <c r="AN48" s="38">
+      <c r="AN48" s="36">
         <f>[1]!MF_p_choke_atma(AN$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>23.994140625</v>
       </c>
-      <c r="AO48" s="38">
+      <c r="AO48" s="36">
         <f>[1]!MF_p_choke_atma(AO$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>22.490234375</v>
       </c>
-      <c r="AP48" s="38">
+      <c r="AP48" s="36">
         <f>[1]!MF_p_choke_atma(AP$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>21.19140625</v>
       </c>
-      <c r="AQ48" s="38">
+      <c r="AQ48" s="36">
         <f>[1]!MF_p_choke_atma(AQ$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>19.6875</v>
       </c>
-      <c r="AR48" s="38">
+      <c r="AR48" s="36">
         <f>[1]!MF_p_choke_atma(AR$42,fw_,d_choke,$H48,1,d_pipe,T_choke,,PVTstr_)</f>
         <v>-1</v>
       </c>
